--- a/Code/Results/Cases/Case_9_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028953855340677</v>
+        <v>1.026664449945439</v>
       </c>
       <c r="D2">
-        <v>1.044276911670988</v>
+        <v>1.041040522852917</v>
       </c>
       <c r="E2">
-        <v>1.039588271362032</v>
+        <v>1.037809877480632</v>
       </c>
       <c r="F2">
-        <v>1.046576590011212</v>
+        <v>1.045086352800192</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.061632499583208</v>
+        <v>1.05983962427022</v>
       </c>
       <c r="J2">
-        <v>1.050301752131051</v>
+        <v>1.048075865222498</v>
       </c>
       <c r="K2">
-        <v>1.05515202825385</v>
+        <v>1.051956241434342</v>
       </c>
       <c r="L2">
-        <v>1.050522311653008</v>
+        <v>1.048766441318669</v>
       </c>
       <c r="M2">
-        <v>1.057423046177199</v>
+        <v>1.055951363559898</v>
       </c>
       <c r="N2">
-        <v>1.019920353313073</v>
+        <v>1.019508913147375</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054018755542175</v>
+        <v>1.052854037844707</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050067436477211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047816449708516</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025612013396498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033002116537125</v>
+        <v>1.030470986028014</v>
       </c>
       <c r="D3">
-        <v>1.047118433700974</v>
+        <v>1.04359461220695</v>
       </c>
       <c r="E3">
-        <v>1.042788124372431</v>
+        <v>1.040801792184288</v>
       </c>
       <c r="F3">
-        <v>1.049608439458569</v>
+        <v>1.047954205692947</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.062944881189028</v>
+        <v>1.060980352432181</v>
       </c>
       <c r="J3">
-        <v>1.052631827335118</v>
+        <v>1.050164094710555</v>
       </c>
       <c r="K3">
-        <v>1.05718193520721</v>
+        <v>1.053698497846783</v>
       </c>
       <c r="L3">
-        <v>1.052901300025648</v>
+        <v>1.050937924462839</v>
       </c>
       <c r="M3">
-        <v>1.059643606296915</v>
+        <v>1.058008178133179</v>
       </c>
       <c r="N3">
-        <v>1.020761051638148</v>
+        <v>1.02009366394283</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055776145790901</v>
+        <v>1.054481839635868</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051500091116299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049045440659529</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025992795310903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035574010067305</v>
+        <v>1.032891048119867</v>
       </c>
       <c r="D4">
-        <v>1.04892696419695</v>
+        <v>1.045221660563181</v>
       </c>
       <c r="E4">
-        <v>1.044826568991486</v>
+        <v>1.042709648320774</v>
       </c>
       <c r="F4">
-        <v>1.051541720999848</v>
+        <v>1.049784471276994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.063769649573387</v>
+        <v>1.061696626449196</v>
       </c>
       <c r="J4">
-        <v>1.054109518028953</v>
+        <v>1.051489243631095</v>
       </c>
       <c r="K4">
-        <v>1.058468677925676</v>
+        <v>1.054803296383565</v>
       </c>
       <c r="L4">
-        <v>1.054412482139583</v>
+        <v>1.052318547359052</v>
       </c>
       <c r="M4">
-        <v>1.061055469867959</v>
+        <v>1.059316995151277</v>
       </c>
       <c r="N4">
-        <v>1.021293974122375</v>
+        <v>1.020464855907177</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056893517288473</v>
+        <v>1.055517660253289</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.05241078203856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049827570537792</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026231991559483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036649203689738</v>
+        <v>1.033902716087351</v>
       </c>
       <c r="D5">
-        <v>1.049686051823286</v>
+        <v>1.04590491168398</v>
       </c>
       <c r="E5">
-        <v>1.0456807275563</v>
+        <v>1.043509074000957</v>
       </c>
       <c r="F5">
-        <v>1.052351401530834</v>
+        <v>1.050551002570192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064114083032591</v>
+        <v>1.06199562831857</v>
       </c>
       <c r="J5">
-        <v>1.054728636263933</v>
+        <v>1.052044417428951</v>
       </c>
       <c r="K5">
-        <v>1.059009117177301</v>
+        <v>1.055267639401317</v>
       </c>
       <c r="L5">
-        <v>1.055045817872249</v>
+        <v>1.052897114904312</v>
       </c>
       <c r="M5">
-        <v>1.061646717729424</v>
+        <v>1.059865044010054</v>
       </c>
       <c r="N5">
-        <v>1.021518647446749</v>
+        <v>1.020621307511934</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057361439853137</v>
+        <v>1.055951395260473</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052799955259785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050163658217557</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026332936174007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036835198622758</v>
+        <v>1.0340771994328</v>
       </c>
       <c r="D6">
-        <v>1.049820154405428</v>
+        <v>1.046025635448857</v>
       </c>
       <c r="E6">
-        <v>1.045829382407691</v>
+        <v>1.043647682238526</v>
       </c>
       <c r="F6">
-        <v>1.052491303280795</v>
+        <v>1.05068302580356</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.064175761584674</v>
+        <v>1.062049208370002</v>
       </c>
       <c r="J6">
-        <v>1.054838149851048</v>
+        <v>1.052142360961807</v>
       </c>
       <c r="K6">
-        <v>1.059106478903365</v>
+        <v>1.055351581411688</v>
       </c>
       <c r="L6">
-        <v>1.055157387154553</v>
+        <v>1.052998637782966</v>
       </c>
       <c r="M6">
-        <v>1.061749945361315</v>
+        <v>1.059960389158808</v>
       </c>
       <c r="N6">
-        <v>1.021560149364667</v>
+        <v>1.020650018306619</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057443135744267</v>
+        <v>1.056026852976145</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052877391958046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050232484312484</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026352317926335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035604905212395</v>
+        <v>1.032927954102207</v>
       </c>
       <c r="D7">
-        <v>1.048956115617283</v>
+        <v>1.045254989269984</v>
       </c>
       <c r="E7">
-        <v>1.044853351292758</v>
+        <v>1.042741578022306</v>
       </c>
       <c r="F7">
-        <v>1.051564287788739</v>
+        <v>1.049811035260097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.063785529738189</v>
+        <v>1.061715620740433</v>
       </c>
       <c r="J7">
-        <v>1.054133919680241</v>
+        <v>1.05151948751507</v>
       </c>
       <c r="K7">
-        <v>1.058494701204147</v>
+        <v>1.054833435788636</v>
       </c>
       <c r="L7">
-        <v>1.054436144260916</v>
+        <v>1.052347291789579</v>
       </c>
       <c r="M7">
-        <v>1.061074989871235</v>
+        <v>1.059340462357047</v>
       </c>
       <c r="N7">
-        <v>1.021307647491978</v>
+        <v>1.020503348421485</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056908965721003</v>
+        <v>1.055536232596384</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052448956822335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04987067468505</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02624312439634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030352960205962</v>
+        <v>1.028006335961877</v>
       </c>
       <c r="D8">
-        <v>1.045267326363366</v>
+        <v>1.041952246711384</v>
       </c>
       <c r="E8">
-        <v>1.040696012043464</v>
+        <v>1.038869111517438</v>
       </c>
       <c r="F8">
-        <v>1.047622143670982</v>
+        <v>1.046093210045846</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062095274541758</v>
+        <v>1.060257697551684</v>
       </c>
       <c r="J8">
-        <v>1.051115886214819</v>
+        <v>1.048832191839669</v>
       </c>
       <c r="K8">
-        <v>1.055867142494991</v>
+        <v>1.05259242178426</v>
       </c>
       <c r="L8">
-        <v>1.051351564501928</v>
+        <v>1.04954710937687</v>
       </c>
       <c r="M8">
-        <v>1.058193484060836</v>
+        <v>1.056683021011878</v>
       </c>
       <c r="N8">
-        <v>1.020220521510436</v>
+        <v>1.019806930553918</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054628494065127</v>
+        <v>1.053433085733954</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050595615241678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048291105629611</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025760089737832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020690208875141</v>
+        <v>1.018937617018882</v>
       </c>
       <c r="D9">
-        <v>1.038496684594316</v>
+        <v>1.035878948403371</v>
       </c>
       <c r="E9">
-        <v>1.033089025346233</v>
+        <v>1.031773825286277</v>
       </c>
       <c r="F9">
-        <v>1.040428624756214</v>
+        <v>1.039302902676053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058906113586661</v>
+        <v>1.05748487077993</v>
       </c>
       <c r="J9">
-        <v>1.045532918103114</v>
+        <v>1.043838916827141</v>
       </c>
       <c r="K9">
-        <v>1.050994598411465</v>
+        <v>1.048415550776487</v>
       </c>
       <c r="L9">
-        <v>1.045667135616883</v>
+        <v>1.044371601891844</v>
       </c>
       <c r="M9">
-        <v>1.052898144165772</v>
+        <v>1.051788950924184</v>
       </c>
       <c r="N9">
-        <v>1.018199616146173</v>
+        <v>1.01841660225383</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050437656023508</v>
+        <v>1.049559815312976</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047147367269109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045334447712542</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024831912993826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014063063167621</v>
+        <v>1.012761524481428</v>
       </c>
       <c r="D10">
-        <v>1.033884764571033</v>
+        <v>1.031777908414493</v>
       </c>
       <c r="E10">
-        <v>1.027947129451052</v>
+        <v>1.027019847386396</v>
       </c>
       <c r="F10">
-        <v>1.035616924964597</v>
+        <v>1.034796857148381</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056699707917236</v>
+        <v>1.055585507361638</v>
       </c>
       <c r="J10">
-        <v>1.041729621346763</v>
+        <v>1.040477813466347</v>
       </c>
       <c r="K10">
-        <v>1.047668033186156</v>
+        <v>1.045596166447296</v>
       </c>
       <c r="L10">
-        <v>1.041829480628503</v>
+        <v>1.040917805718463</v>
       </c>
       <c r="M10">
-        <v>1.049371564092571</v>
+        <v>1.048565035143279</v>
       </c>
       <c r="N10">
-        <v>1.016845136458695</v>
+        <v>1.017611819366477</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047697506241932</v>
+        <v>1.047059237616938</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044811922939993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043359294192949</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024212229827495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011868267454165</v>
+        <v>1.010708506685251</v>
       </c>
       <c r="D11">
-        <v>1.032436108914978</v>
+        <v>1.030497999333149</v>
       </c>
       <c r="E11">
-        <v>1.026588396475197</v>
+        <v>1.025766414180032</v>
       </c>
       <c r="F11">
-        <v>1.034676435504297</v>
+        <v>1.033945590168028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056154435942223</v>
+        <v>1.055140664848991</v>
       </c>
       <c r="J11">
-        <v>1.040755513812649</v>
+        <v>1.039642486418965</v>
       </c>
       <c r="K11">
-        <v>1.046771198824634</v>
+        <v>1.044866809289088</v>
       </c>
       <c r="L11">
-        <v>1.041025729647729</v>
+        <v>1.040218240324889</v>
       </c>
       <c r="M11">
-        <v>1.048972750857765</v>
+        <v>1.048254530771717</v>
       </c>
       <c r="N11">
-        <v>1.016680567209106</v>
+        <v>1.017724801895004</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047813452491508</v>
+        <v>1.047245349403511</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044210273835765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042879289898148</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024145767606264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011304895582232</v>
+        <v>1.010157985596025</v>
       </c>
       <c r="D12">
-        <v>1.032092615108275</v>
+        <v>1.03018228422887</v>
       </c>
       <c r="E12">
-        <v>1.026401406487407</v>
+        <v>1.025575736700293</v>
       </c>
       <c r="F12">
-        <v>1.034745132734534</v>
+        <v>1.034016991670035</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05610070599934</v>
+        <v>1.0551015563168</v>
       </c>
       <c r="J12">
-        <v>1.040638400040069</v>
+        <v>1.039538577311673</v>
       </c>
       <c r="K12">
-        <v>1.046629759603036</v>
+        <v>1.044753217087961</v>
       </c>
       <c r="L12">
-        <v>1.041039693996916</v>
+        <v>1.040228818977234</v>
       </c>
       <c r="M12">
-        <v>1.049235629722493</v>
+        <v>1.048520262954098</v>
       </c>
       <c r="N12">
-        <v>1.016777369683783</v>
+        <v>1.017879080406025</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048344568736512</v>
+        <v>1.047778910453891</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044110274012229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042798979755438</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024184782469705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011982717542896</v>
+        <v>1.010734345345186</v>
       </c>
       <c r="D13">
-        <v>1.032601149244886</v>
+        <v>1.030599729399739</v>
       </c>
       <c r="E13">
-        <v>1.027126117178475</v>
+        <v>1.026199195504336</v>
       </c>
       <c r="F13">
-        <v>1.035622636513868</v>
+        <v>1.034820452464201</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056441462596597</v>
+        <v>1.055383324870512</v>
       </c>
       <c r="J13">
-        <v>1.041197664747482</v>
+        <v>1.040000268608083</v>
       </c>
       <c r="K13">
-        <v>1.047087296533348</v>
+        <v>1.045121117219302</v>
       </c>
       <c r="L13">
-        <v>1.041709090729737</v>
+        <v>1.040798694497959</v>
       </c>
       <c r="M13">
-        <v>1.050055916278337</v>
+        <v>1.049267729205928</v>
       </c>
       <c r="N13">
-        <v>1.017096934840497</v>
+        <v>1.018048139346862</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049267367669377</v>
+        <v>1.048644282509005</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044431298390041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043056381117081</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024315367106996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013017454172411</v>
+        <v>1.01164823723296</v>
       </c>
       <c r="D14">
-        <v>1.033342951513439</v>
+        <v>1.031225497688905</v>
       </c>
       <c r="E14">
-        <v>1.02804298529369</v>
+        <v>1.027003589975236</v>
       </c>
       <c r="F14">
-        <v>1.036600048066464</v>
+        <v>1.035713084038683</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056857639915177</v>
+        <v>1.055725899825162</v>
       </c>
       <c r="J14">
-        <v>1.041893438296491</v>
+        <v>1.040579312027795</v>
       </c>
       <c r="K14">
-        <v>1.047678501657584</v>
+        <v>1.045597860555254</v>
       </c>
       <c r="L14">
-        <v>1.042471047004442</v>
+        <v>1.041449939645063</v>
       </c>
       <c r="M14">
-        <v>1.050879351948978</v>
+        <v>1.050007659429067</v>
       </c>
       <c r="N14">
-        <v>1.017420417624303</v>
+        <v>1.018175225983523</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050090235066113</v>
+        <v>1.049401228080789</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04485069685939</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043394986936782</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024449275315407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013549560850818</v>
+        <v>1.012125668317199</v>
       </c>
       <c r="D15">
-        <v>1.033719457595333</v>
+        <v>1.031547454775733</v>
       </c>
       <c r="E15">
-        <v>1.028478492428774</v>
+        <v>1.027390359357151</v>
       </c>
       <c r="F15">
-        <v>1.037033264407953</v>
+        <v>1.036108818258321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057052397525046</v>
+        <v>1.055886432179345</v>
       </c>
       <c r="J15">
-        <v>1.042221579772044</v>
+        <v>1.040854470915538</v>
       </c>
       <c r="K15">
-        <v>1.047963752421906</v>
+        <v>1.045829221080151</v>
       </c>
       <c r="L15">
-        <v>1.042813553945928</v>
+        <v>1.041744416290419</v>
       </c>
       <c r="M15">
-        <v>1.051220779945868</v>
+        <v>1.050312126207808</v>
       </c>
       <c r="N15">
-        <v>1.017554055999663</v>
+        <v>1.01821723505072</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050397364879743</v>
+        <v>1.049679161510813</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045058169446316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043564930386726</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024506261133128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016227976742268</v>
+        <v>1.014572716731745</v>
       </c>
       <c r="D16">
-        <v>1.03557847762598</v>
+        <v>1.033161840706139</v>
       </c>
       <c r="E16">
-        <v>1.03052154851052</v>
+        <v>1.029237794916923</v>
       </c>
       <c r="F16">
-        <v>1.038933655353267</v>
+        <v>1.037854746428198</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057939336231867</v>
+        <v>1.056622521329631</v>
       </c>
       <c r="J16">
-        <v>1.043737438362954</v>
+        <v>1.042144875431749</v>
       </c>
       <c r="K16">
-        <v>1.049298869274846</v>
+        <v>1.046922096509803</v>
       </c>
       <c r="L16">
-        <v>1.044325633109936</v>
+        <v>1.04306329448916</v>
       </c>
       <c r="M16">
-        <v>1.052599096058813</v>
+        <v>1.051537807637988</v>
       </c>
       <c r="N16">
-        <v>1.018070755751161</v>
+        <v>1.018347333147003</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051448371417562</v>
+        <v>1.050609501166974</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046005243893098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044341035895895</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02473435908731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017743895278733</v>
+        <v>1.015983602520519</v>
       </c>
       <c r="D17">
-        <v>1.036619208037135</v>
+        <v>1.034082537097668</v>
       </c>
       <c r="E17">
-        <v>1.031611717478275</v>
+        <v>1.030243842705267</v>
       </c>
       <c r="F17">
-        <v>1.039876758755643</v>
+        <v>1.038729357220445</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05840034402116</v>
+        <v>1.057011177440868</v>
       </c>
       <c r="J17">
-        <v>1.044536873800553</v>
+        <v>1.042841114586941</v>
       </c>
       <c r="K17">
-        <v>1.050014253076138</v>
+        <v>1.047518248887535</v>
       </c>
       <c r="L17">
-        <v>1.045087287157447</v>
+        <v>1.043741583771268</v>
       </c>
       <c r="M17">
-        <v>1.053219952942952</v>
+        <v>1.052090767209765</v>
       </c>
       <c r="N17">
-        <v>1.01829858025858</v>
+        <v>1.018410414169532</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051811147410576</v>
+        <v>1.050918521554321</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046513585276581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044765327313761</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024840867431174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018373492843764</v>
+        <v>1.016599061669401</v>
       </c>
       <c r="D18">
-        <v>1.037023436979756</v>
+        <v>1.034457196672627</v>
       </c>
       <c r="E18">
-        <v>1.031939439311362</v>
+        <v>1.030569089723086</v>
       </c>
       <c r="F18">
-        <v>1.040022688372705</v>
+        <v>1.038869242239971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05851724214039</v>
+        <v>1.05711256320724</v>
       </c>
       <c r="J18">
-        <v>1.044759901547225</v>
+        <v>1.043049317821515</v>
       </c>
       <c r="K18">
-        <v>1.050232299347929</v>
+        <v>1.047706528368982</v>
       </c>
       <c r="L18">
-        <v>1.045228726414347</v>
+        <v>1.043880228682939</v>
       </c>
       <c r="M18">
-        <v>1.053184576476648</v>
+        <v>1.052049154563972</v>
       </c>
       <c r="N18">
-        <v>1.018278124667601</v>
+        <v>1.018368266696873</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051547717639085</v>
+        <v>1.050649978190748</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046656268813313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044885821230733</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024837986024337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01821515331097</v>
+        <v>1.016498765157978</v>
       </c>
       <c r="D19">
-        <v>1.036871176223666</v>
+        <v>1.034349971203691</v>
       </c>
       <c r="E19">
-        <v>1.031586193018266</v>
+        <v>1.030277946603486</v>
       </c>
       <c r="F19">
-        <v>1.039448515585146</v>
+        <v>1.038338618131984</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05833514033717</v>
+        <v>1.05696118089629</v>
       </c>
       <c r="J19">
-        <v>1.044476533237544</v>
+        <v>1.042821566483289</v>
       </c>
       <c r="K19">
-        <v>1.050021133719514</v>
+        <v>1.047539489216763</v>
       </c>
       <c r="L19">
-        <v>1.044819362332238</v>
+        <v>1.04353188308042</v>
       </c>
       <c r="M19">
-        <v>1.052558285254636</v>
+        <v>1.051465662897656</v>
       </c>
       <c r="N19">
-        <v>1.018050042187777</v>
+        <v>1.018220366103374</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.05073042056513</v>
+        <v>1.049866244691696</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046513280307897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044774660515765</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024743376849944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015828144500402</v>
+        <v>1.014373943767329</v>
       </c>
       <c r="D20">
-        <v>1.035129916685856</v>
+        <v>1.032863419222419</v>
       </c>
       <c r="E20">
-        <v>1.029323515543082</v>
+        <v>1.028262154716847</v>
       </c>
       <c r="F20">
-        <v>1.036898803532504</v>
+        <v>1.035974169730588</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057306124192253</v>
+        <v>1.056093120481837</v>
       </c>
       <c r="J20">
-        <v>1.042762263663761</v>
+        <v>1.041361801785722</v>
       </c>
       <c r="K20">
-        <v>1.048581949297623</v>
+        <v>1.046352012768628</v>
       </c>
       <c r="L20">
-        <v>1.04286962530095</v>
+        <v>1.041825608616879</v>
       </c>
       <c r="M20">
-        <v>1.050322444580302</v>
+        <v>1.049412636124462</v>
       </c>
       <c r="N20">
-        <v>1.017228629016814</v>
+        <v>1.017761158950384</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048439586546721</v>
+        <v>1.047719576519678</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04549962170056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04393935828004</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024383800420163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010703000154029</v>
+        <v>1.009743910418448</v>
       </c>
       <c r="D21">
-        <v>1.031553974405254</v>
+        <v>1.029792931332691</v>
       </c>
       <c r="E21">
-        <v>1.025293955780294</v>
+        <v>1.024669941369473</v>
       </c>
       <c r="F21">
-        <v>1.03306791260806</v>
+        <v>1.032483029413852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055544947275544</v>
+        <v>1.054646993642561</v>
       </c>
       <c r="J21">
-        <v>1.039759950336763</v>
+        <v>1.038839817114429</v>
       </c>
       <c r="K21">
-        <v>1.045961230307255</v>
+        <v>1.044231027709599</v>
       </c>
       <c r="L21">
-        <v>1.039811465185171</v>
+        <v>1.039198536944602</v>
       </c>
       <c r="M21">
-        <v>1.047448764303385</v>
+        <v>1.046874070021082</v>
       </c>
       <c r="N21">
-        <v>1.016124163667678</v>
+        <v>1.017489051288815</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046124883122471</v>
+        <v>1.045670054502774</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043649916041991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042443306989395</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023919390162367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007439933756259</v>
+        <v>1.006795744589768</v>
       </c>
       <c r="D22">
-        <v>1.029279725802635</v>
+        <v>1.027839875048495</v>
       </c>
       <c r="E22">
-        <v>1.022753821235075</v>
+        <v>1.022408738135845</v>
       </c>
       <c r="F22">
-        <v>1.030679515090337</v>
+        <v>1.03031118701849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054420895501141</v>
+        <v>1.05372259226458</v>
       </c>
       <c r="J22">
-        <v>1.037857018563392</v>
+        <v>1.037240536429519</v>
       </c>
       <c r="K22">
-        <v>1.044292636355004</v>
+        <v>1.042879283034545</v>
       </c>
       <c r="L22">
-        <v>1.037887606843521</v>
+        <v>1.037548971560659</v>
       </c>
       <c r="M22">
-        <v>1.045666757870178</v>
+        <v>1.045305174981876</v>
       </c>
       <c r="N22">
-        <v>1.01542812506299</v>
+        <v>1.01731472135781</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.044714554050485</v>
+        <v>1.044428387042334</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042456828886206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041472936894398</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023624168957478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009159790759516</v>
+        <v>1.008335878562696</v>
       </c>
       <c r="D23">
-        <v>1.030471485670908</v>
+        <v>1.028851347777653</v>
       </c>
       <c r="E23">
-        <v>1.024089047206356</v>
+        <v>1.023584401859396</v>
       </c>
       <c r="F23">
-        <v>1.031937668380646</v>
+        <v>1.031445656353584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055009103971247</v>
+        <v>1.054198039672961</v>
       </c>
       <c r="J23">
-        <v>1.038853937847464</v>
+        <v>1.038064412539301</v>
       </c>
       <c r="K23">
-        <v>1.045163124165101</v>
+        <v>1.043572035031047</v>
       </c>
       <c r="L23">
-        <v>1.038895814006409</v>
+        <v>1.038400351305568</v>
       </c>
       <c r="M23">
-        <v>1.046603120569512</v>
+        <v>1.046119885196179</v>
       </c>
       <c r="N23">
-        <v>1.015787269521501</v>
+        <v>1.01735460462639</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045455617670895</v>
+        <v>1.045073171779026</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043062760739646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041952256798727</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023769427479708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015815785187883</v>
+        <v>1.014371364428686</v>
       </c>
       <c r="D24">
-        <v>1.035104544245468</v>
+        <v>1.032844717360719</v>
       </c>
       <c r="E24">
-        <v>1.029277330829333</v>
+        <v>1.02822673738805</v>
       </c>
       <c r="F24">
-        <v>1.036826687450024</v>
+        <v>1.035909639806098</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057275542949832</v>
+        <v>1.056067446253456</v>
       </c>
       <c r="J24">
-        <v>1.042718324201507</v>
+        <v>1.041327207332503</v>
       </c>
       <c r="K24">
-        <v>1.048542008702237</v>
+        <v>1.046318590597171</v>
       </c>
       <c r="L24">
-        <v>1.042809097434424</v>
+        <v>1.04177565197624</v>
       </c>
       <c r="M24">
-        <v>1.050236542544118</v>
+        <v>1.049334182334393</v>
       </c>
       <c r="N24">
-        <v>1.017188348017087</v>
+        <v>1.01773316342772</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048331202342721</v>
+        <v>1.047617052043695</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04544432678062</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043885982530163</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024363571257192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02326316132179</v>
+        <v>1.021336019427875</v>
       </c>
       <c r="D25">
-        <v>1.040307320929384</v>
+        <v>1.037492327300243</v>
       </c>
       <c r="E25">
-        <v>1.035113163533387</v>
+        <v>1.03364639967724</v>
       </c>
       <c r="F25">
-        <v>1.042336163528949</v>
+        <v>1.041091495578896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059772374599699</v>
+        <v>1.058232035703915</v>
       </c>
       <c r="J25">
-        <v>1.047032212730202</v>
+        <v>1.045166074907683</v>
       </c>
       <c r="K25">
-        <v>1.052310557394043</v>
+        <v>1.049535224150877</v>
       </c>
       <c r="L25">
-        <v>1.047189793119121</v>
+        <v>1.045743923539238</v>
       </c>
       <c r="M25">
-        <v>1.054310983367684</v>
+        <v>1.053083732057764</v>
       </c>
       <c r="N25">
-        <v>1.018751081400448</v>
+        <v>1.018759246726981</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.05155580754695</v>
+        <v>1.05058453439335</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.048105988860753</v>
+        <v>1.046157111808338</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025086104562175</v>
       </c>
     </row>
   </sheetData>
